--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1545555.26201881</v>
+        <v>-1548114.532586365</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>65.01426080619872</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>210.5229262803073</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962369</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349998</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736456</v>
+        <v>9.512185486736414</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5862749777979</v>
+        <v>128.5862749777978</v>
       </c>
       <c r="T3" t="n">
         <v>190.8126513536573</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>147.3999959842907</v>
+        <v>126.3124906618083</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004823</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104688</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.830723471637</v>
+        <v>89.83072347163696</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>103.9069048230597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>103.082950687223</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>69.51608747327987</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>146.2760686444762</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145766</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>236.0968754632975</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.577738993269</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.8998342062217</v>
       </c>
       <c r="F13" t="n">
-        <v>78.9105100867805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>272.897607888585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>78.68827782033888</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797025</v>
+        <v>42.53134576113706</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>135.5334195528344</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>50.06209150957563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272882</v>
+        <v>199.9811704213152</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.163096820546</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428183</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,10 +3430,10 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.246482743414</v>
+        <v>1187.150385846452</v>
       </c>
       <c r="C2" t="n">
-        <v>1437.246482743414</v>
+        <v>818.1878689060406</v>
       </c>
       <c r="D2" t="n">
-        <v>1078.980784136664</v>
+        <v>818.1878689060406</v>
       </c>
       <c r="E2" t="n">
-        <v>693.1925315384196</v>
+        <v>818.1878689060406</v>
       </c>
       <c r="F2" t="n">
-        <v>693.1925315384196</v>
+        <v>407.201964116433</v>
       </c>
       <c r="G2" t="n">
-        <v>278.0750795983208</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
-        <v>65.42565911316225</v>
+        <v>109.1574891935903</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316225</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725624</v>
+        <v>250.5613272725623</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183938</v>
+        <v>578.770220618394</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887443</v>
+        <v>1022.844136887444</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064179</v>
+        <v>1548.631370064181</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746176</v>
+        <v>2087.540198746178</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767912</v>
+        <v>2583.081262767913</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303801</v>
+        <v>2971.513095303803</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478300997</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658112</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658112</v>
+        <v>3159.966809007346</v>
       </c>
       <c r="T2" t="n">
-        <v>3271.282955658112</v>
+        <v>2953.792066077312</v>
       </c>
       <c r="U2" t="n">
-        <v>3271.282955658112</v>
+        <v>2700.25798920834</v>
       </c>
       <c r="V2" t="n">
-        <v>2940.220068314542</v>
+        <v>2369.19510186477</v>
       </c>
       <c r="W2" t="n">
-        <v>2587.451413044428</v>
+        <v>2016.426446594656</v>
       </c>
       <c r="X2" t="n">
-        <v>2213.985654783348</v>
+        <v>1642.960688333576</v>
       </c>
       <c r="Y2" t="n">
-        <v>1823.846322807536</v>
+        <v>1252.821356357764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1647.371745645385</v>
+        <v>931.3149953501908</v>
       </c>
       <c r="C3" t="n">
-        <v>1472.918716364258</v>
+        <v>756.8619660690638</v>
       </c>
       <c r="D3" t="n">
-        <v>1323.984306703007</v>
+        <v>607.9275564078125</v>
       </c>
       <c r="E3" t="n">
-        <v>1164.746851697551</v>
+        <v>448.690101402357</v>
       </c>
       <c r="F3" t="n">
-        <v>1018.212293724436</v>
+        <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>881.8251154793023</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>791.0906775767771</v>
+        <v>75.03392728158293</v>
       </c>
       <c r="I3" t="n">
-        <v>781.4824094083565</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J3" t="n">
-        <v>900.6041175573613</v>
+        <v>156.8733478056104</v>
       </c>
       <c r="K3" t="n">
-        <v>1135.057607831232</v>
+        <v>391.3268380794817</v>
       </c>
       <c r="L3" t="n">
-        <v>1496.631800017378</v>
+        <v>752.901030265627</v>
       </c>
       <c r="M3" t="n">
-        <v>1937.928696118007</v>
+        <v>1194.197926366257</v>
       </c>
       <c r="N3" t="n">
-        <v>2405.314052854271</v>
+        <v>1661.583283102521</v>
       </c>
       <c r="O3" t="n">
-        <v>2810.660547928132</v>
+        <v>2066.929778176382</v>
       </c>
       <c r="P3" t="n">
-        <v>3116.653779959886</v>
+        <v>2400.597029664692</v>
       </c>
       <c r="Q3" t="n">
-        <v>3271.282955658112</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
-        <v>3271.282955658112</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="S3" t="n">
-        <v>3141.397829417912</v>
+        <v>2425.341079122718</v>
       </c>
       <c r="T3" t="n">
-        <v>2948.657777545531</v>
+        <v>2232.601027250337</v>
       </c>
       <c r="U3" t="n">
-        <v>2720.588346595884</v>
+        <v>2004.53159630069</v>
       </c>
       <c r="V3" t="n">
-        <v>2485.436238364141</v>
+        <v>1769.379488068947</v>
       </c>
       <c r="W3" t="n">
-        <v>2231.19888163594</v>
+        <v>1515.142131340745</v>
       </c>
       <c r="X3" t="n">
-        <v>2023.347381430407</v>
+        <v>1307.290631135213</v>
       </c>
       <c r="Y3" t="n">
-        <v>1815.587082665453</v>
+        <v>1099.530332370259</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1090.10618455964</v>
+        <v>193.0140335190293</v>
       </c>
       <c r="C4" t="n">
-        <v>921.170001631733</v>
+        <v>193.0140335190292</v>
       </c>
       <c r="D4" t="n">
-        <v>772.2811167991161</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="E4" t="n">
-        <v>624.368023216723</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="F4" t="n">
-        <v>477.4780757188127</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="H4" t="n">
-        <v>163.3583919324015</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316225</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182614</v>
+        <v>109.1495242182616</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401517</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039117</v>
+        <v>624.4564789039121</v>
       </c>
       <c r="M4" t="n">
-        <v>965.512207122043</v>
+        <v>965.5122071220434</v>
       </c>
       <c r="N4" t="n">
         <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235783</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.64080186376</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149532</v>
+        <v>1906.594412149533</v>
       </c>
       <c r="R4" t="n">
-        <v>1815.856307632727</v>
+        <v>1815.856307632728</v>
       </c>
       <c r="S4" t="n">
-        <v>1815.856307632727</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>1815.856307632727</v>
+        <v>1401.9657663704</v>
       </c>
       <c r="U4" t="n">
-        <v>1815.856307632727</v>
+        <v>1112.861798427777</v>
       </c>
       <c r="V4" t="n">
-        <v>1561.17181942684</v>
+        <v>1112.861798427777</v>
       </c>
       <c r="W4" t="n">
-        <v>1271.75464938988</v>
+        <v>823.4446283908164</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.75464938988</v>
+        <v>595.4550774927991</v>
       </c>
       <c r="Y4" t="n">
-        <v>1271.75464938988</v>
+        <v>374.662498349269</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1311.909787855437</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1311.909787855437</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>926.121535257193</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3015.503881380036</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3015.503881380036</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2662.735226109921</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2289.269467848841</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>917.6163259372726</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C7" t="n">
-        <v>748.6801430093657</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D7" t="n">
-        <v>598.5635035970299</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>450.6504100146368</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1276.257986550983</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.46409084602</v>
+        <v>1021.573498345096</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.04692080906</v>
+        <v>1021.573498345096</v>
       </c>
       <c r="X7" t="n">
-        <v>1320.057369911042</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="Y7" t="n">
-        <v>1099.264790767512</v>
+        <v>793.5839474470786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610488</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610488</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.739181610488</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>1224.739181610488</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,16 +5130,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>802.9288273958748</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>802.9288273958748</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>652.8121879835389</v>
       </c>
       <c r="E13" t="n">
-        <v>564.5188827892232</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.369871369645</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>984.5772922261145</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,25 +5516,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708862</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429793</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429794</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518382</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189237</v>
+        <v>2117.354959541323</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327548</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.395944601126</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5768,34 +5768,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762946</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>432.9862109052757</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.721318527044</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400719</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812165</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812165</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812165</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812165</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270449</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2244.961901336507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1955.886674680705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1701.202186474819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>1183.795465539841</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703116</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6464,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400714</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121646</v>
+        <v>923.4098145049273</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121646</v>
+        <v>773.2931750925916</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121646</v>
+        <v>625.3800815101985</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121646</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,13 +6637,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138413</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703112</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,25 +6856,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954155</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7546,13 +7546,13 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7561,7 +7561,7 @@
         <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7576,13 +7576,13 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>27.95355500662305</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500662134</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780395</v>
+        <v>1.622913276780338</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>317.7195808572819</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>84.5411038933071</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962373</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842624</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007336</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9987361002814</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.215477033921644</v>
+        <v>22.30298235640409</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004823</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104685</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5341284403475</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51053793615074</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272853</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>13.28686650065912</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>207.8347205162521</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194214</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>31.7134015457934</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194157</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>17.42427990597307</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>6.257951202385252</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194203</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118476.4986260251</v>
+        <v>118476.4986260252</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26335,13 +26335,13 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.654945751</v>
       </c>
       <c r="K2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262496</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081206</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074678</v>
+        <v>14479.05232074628</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125528</v>
+        <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.24184102299</v>
+        <v>3495.241841022814</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068584</v>
+        <v>11698.02956068581</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031115</v>
+        <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313602.703918978</v>
+        <v>-1313962.786934696</v>
       </c>
       <c r="C6" t="n">
-        <v>-69084.75017903534</v>
+        <v>-69084.75017903479</v>
       </c>
       <c r="D6" t="n">
-        <v>-54605.69785828851</v>
+        <v>-54605.69785828843</v>
       </c>
       <c r="E6" t="n">
-        <v>-296451.3689373052</v>
+        <v>-296486.1068627404</v>
       </c>
       <c r="F6" t="n">
-        <v>28961.09287005049</v>
+        <v>28926.35494461478</v>
       </c>
       <c r="G6" t="n">
-        <v>28961.09287005047</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="H6" t="n">
-        <v>28961.09287005046</v>
+        <v>28926.35494461477</v>
       </c>
       <c r="I6" t="n">
-        <v>28961.0928700505</v>
+        <v>28926.35494461475</v>
       </c>
       <c r="J6" t="n">
-        <v>-185016.7965425022</v>
+        <v>-185051.5344679383</v>
       </c>
       <c r="K6" t="n">
-        <v>25465.85102902747</v>
+        <v>25431.11310359195</v>
       </c>
       <c r="L6" t="n">
-        <v>1932.584363815549</v>
+        <v>1932.584363815462</v>
       </c>
       <c r="M6" t="n">
-        <v>-63694.7255780647</v>
+        <v>-63694.72557806464</v>
       </c>
       <c r="N6" t="n">
-        <v>21360.3023574472</v>
+        <v>21360.30235744723</v>
       </c>
       <c r="O6" t="n">
-        <v>21360.30235744723</v>
+        <v>21360.30235744722</v>
       </c>
       <c r="P6" t="n">
         <v>21360.30235744722</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145281</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209639</v>
+        <v>11.08225210209616</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145281</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776456</v>
+        <v>13.58071648776365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.820738914528</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776456</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145281</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776456</v>
+        <v>13.58071648776365</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>302.9691409186518</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>147.9122212716789</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>75.90496054965138</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>139.9357695611367</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.443513141477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>16.04076786053048</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>118.0069143588258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436989</v>
+        <v>4.33646009443699</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215282</v>
+        <v>44.41077194215283</v>
       </c>
       <c r="I2" t="n">
         <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402217</v>
+        <v>368.0516299402219</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377395</v>
+        <v>551.6139857377398</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528656</v>
+        <v>684.325926352866</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573094</v>
+        <v>761.4444485573097</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006286</v>
+        <v>773.7654158006288</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365707</v>
+        <v>730.644740736571</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551574</v>
+        <v>623.5883821551577</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231327</v>
+        <v>468.2889050231328</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071777</v>
+        <v>272.4001614071778</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198297</v>
+        <v>98.81708440198301</v>
       </c>
       <c r="T2" t="n">
         <v>18.98285406339793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.346916807554959</v>
+        <v>0.3469168075549591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528245</v>
+        <v>2.320210700528246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299648</v>
+        <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467862</v>
+        <v>79.88444736467866</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863111</v>
+        <v>219.2090293863112</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217036</v>
+        <v>374.6631463217037</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335561</v>
+        <v>503.7808365335563</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277049</v>
+        <v>587.8884744277051</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290545</v>
+        <v>603.4481330290547</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594549</v>
+        <v>552.0371485594551</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736787</v>
+        <v>443.0584801736789</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498862</v>
+        <v>296.1728606498863</v>
       </c>
       <c r="R3" t="n">
         <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603997</v>
+        <v>43.09689612603998</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164282</v>
+        <v>9.352077341164287</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242267</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.94518671039397</v>
+        <v>1.945186710393971</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695731</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>58.4970694362114</v>
+        <v>58.49706943621143</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248537</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166812</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889363</v>
+        <v>289.1962132889364</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120293</v>
+        <v>304.9168586120294</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369247</v>
+        <v>297.6666172369249</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564132</v>
+        <v>274.9432997564134</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643761</v>
+        <v>235.2614908643762</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221714</v>
+        <v>162.8828617221715</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553248</v>
+        <v>87.46266790553253</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750218</v>
+        <v>33.89929930750219</v>
       </c>
       <c r="T4" t="n">
-        <v>8.31125230804696</v>
+        <v>8.311252308046964</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942167</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>414.644818552487</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32549,19 +32549,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135354</v>
+        <v>187.0057254135356</v>
       </c>
       <c r="K2" t="n">
-        <v>331.524134692759</v>
+        <v>331.5241346927592</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828784</v>
+        <v>448.5595113828787</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300367</v>
+        <v>531.098215330037</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040377</v>
+        <v>544.352352204038</v>
       </c>
       <c r="O2" t="n">
-        <v>500.546529314884</v>
+        <v>500.5465293148842</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998879</v>
+        <v>392.3553863998881</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486832</v>
+        <v>245.9832151486833</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304561</v>
+        <v>56.81462359304572</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120.3249577262675</v>
+        <v>92.37140271964452</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473446</v>
+        <v>236.8217073473447</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536819</v>
+        <v>365.2264567536821</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056865</v>
+        <v>445.7544405056868</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457212</v>
+        <v>472.1064209457214</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150104</v>
+        <v>409.4409041150107</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593485</v>
+        <v>337.03762776597</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638647</v>
+        <v>156.1910865638648</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.1655203081809</v>
+        <v>44.16552030818096</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907983</v>
+        <v>203.7258368907984</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492524</v>
+        <v>316.7862385492525</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738699</v>
+        <v>344.50073557387</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161533</v>
+        <v>341.7987896161535</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704529</v>
+        <v>299.528427670453</v>
       </c>
       <c r="P4" t="n">
         <v>232.5400501292696</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047706</v>
+        <v>76.72081847047714</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>272.5107846304687</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.626132989908</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36364,10 +36364,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
